--- a/files.xlsx
+++ b/files.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAE7CE-4730-4213-B8F4-D72BA9324038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,220 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Framework Support</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Does the businness Layer and Core layer and / or execution later are wrapped for different types of interfaces (File Reader/Database wrapper etc to name a few)</t>
+  </si>
+  <si>
+    <t>Ease of Object Idetification locators for Elements (Does a dedicated locator for UI Automation Exists to help the automation team identify the object on page or equivalent interface</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Interfact Flexibility</t>
+  </si>
+  <si>
+    <t>Object identification</t>
+  </si>
+  <si>
+    <t>Clound Resource Connectivity</t>
+  </si>
+  <si>
+    <t>Docker Compatibility</t>
+  </si>
+  <si>
+    <t>Parallel Execution with Selenium Grid</t>
+  </si>
+  <si>
+    <t>Cross-Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Message Queue Integration</t>
+  </si>
+  <si>
+    <t>API Testing Capabilities</t>
+  </si>
+  <si>
+    <t>Security Checks and Compliance</t>
+  </si>
+  <si>
+    <t>Is there built-in support for security checks, including integration with tools like Whitesource, and compliance testing against industry standards?</t>
+  </si>
+  <si>
+    <t>Does the framework offer robust support for API testing, including RESTful and SOAP services</t>
+  </si>
+  <si>
+    <t>Can the framework seamlessly integrate with message queues like RabbitMQ or Kafka for testing asynchronous systems</t>
+  </si>
+  <si>
+    <t>Is there support for testing across multiple browsers and versions to ensure broad compatibility?</t>
+  </si>
+  <si>
+    <t>Does the framework support parallel execution using Selenium Grid for faster and more efficient testing?</t>
+  </si>
+  <si>
+    <t>Can the framework effortlessly connect to cloud-hosted resources such as SQL or NoSQL databases on platforms like AWS RDS?</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <r>
+      <t>BDD Framework Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Data Variety</t>
+  </si>
+  <si>
+    <t>Does the framework offer support for different types of test data, including structured, unstructured, and randomized data?</t>
+  </si>
+  <si>
+    <t>Data Masking and Privacy</t>
+  </si>
+  <si>
+    <t>Does the framework offer features for masking sensitive or personally identifiable information (PII) within test data to comply with data privacy regulations and protect sensitive information during testing?</t>
+  </si>
+  <si>
+    <t>Integration with Test Management Tools</t>
+  </si>
+  <si>
+    <t>Does the framework integrate with test management tools or data repositories to streamline the process of managing and accessing test data within the testing ecosystem?</t>
+  </si>
+  <si>
+    <t>Data Generation and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the framework provide tools or utilities for generating and managing test data efficiently, such as data factories, data builders, or data generation libraries?</t>
+  </si>
+  <si>
+    <t>Is there built-in support for Behavior-Driven Development (BDD) frameworks like Cucumber or SpecFlow for improved collaboration and clarity in testing scenarios?</t>
+  </si>
+  <si>
+    <t>Framework support for tagging of test cases</t>
+  </si>
+  <si>
+    <t>Enables categorization and organization of test cases based on different criteria such as feature, priority, or test type.</t>
+  </si>
+  <si>
+    <t>Support retrying of test cases on failure or other unsuccessful events (other than pass)</t>
+  </si>
+  <si>
+    <t>Allows for automatic retries of failed test cases or other unsuccessful events, improving test robustness and reliability.</t>
+  </si>
+  <si>
+    <t>Supports execution of pipelines (e.g., Jenkins):</t>
+  </si>
+  <si>
+    <t>Integrates seamlessly with popular CI/CD platforms like Jenkins, enabling automated execution of test suites as part of the continuous integration and delivery process.</t>
+  </si>
+  <si>
+    <t>Framework integration support on Teams or equivalent webhooks:</t>
+  </si>
+  <si>
+    <t>Facilitates integration with collaboration platforms such as Microsoft Teams or Slack, allowing for real-time notifications and status updates on test execution.</t>
+  </si>
+  <si>
+    <t>Seamless integration with artifact repositories for storing and versioning test artifacts</t>
+  </si>
+  <si>
+    <t>Supports real-time display of data on any dashboard</t>
+  </si>
+  <si>
+    <t>Integration with collaboration tools for sharing test reports and insights with stakeholders (e.g., Slack, Microsoft Teams):</t>
+  </si>
+  <si>
+    <t>Integrates with collaboration tools like Slack or Microsoft Teams for sharing test reports and insights with stakeholders in real-time, promoting transparency and collaboration.</t>
+  </si>
+  <si>
+    <t>Integrates with analytics and visualization tools for deeper analysis and visualization of test results, enabling stakeholders to gain insights and identify trends.</t>
+  </si>
+  <si>
+    <t>Support for central reporting capabilities</t>
+  </si>
+  <si>
+    <t>Provides centralized reporting capabilities through a dedicated platform where stakeholders can access and view details of multiple projects easily, facilitating cross-project visibility and analysis.</t>
+  </si>
+  <si>
+    <t>Support local execution:</t>
+  </si>
+  <si>
+    <t>Allows for running tests locally on developer machines or test environments, enabling quick feedback during development and debugging.</t>
+  </si>
+  <si>
+    <t>Supports remote/Grid/AWS execution:</t>
+  </si>
+  <si>
+    <t>Enables execution of tests on remote servers, Selenium Grid, or cloud platforms like AWS, providing scalability and flexibility in test execution.</t>
+  </si>
+  <si>
+    <t>Scalable and distributed test execution for handling large test suites and parallel execution:</t>
+  </si>
+  <si>
+    <t>Enables parallel execution of tests across multiple machines or nodes, allowing for faster execution of large test suites and reducing overall test execution time.</t>
+  </si>
+  <si>
+    <t>Integrates with containerization platforms like Docker for encapsulating test environments and dependencies, ensuring consistency and reproducibility in test execution environments.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +260,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +552,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="76.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>